--- a/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_9.xlsx
+++ b/Nuno-dataset/ph-as-input/test-solidos-01/content/results/metrics_1_9.xlsx
@@ -482,586 +482,586 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9722304983814706</v>
+        <v>0.9903547028684991</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9981001417523686</v>
+        <v>0.9996339600147776</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9462917649118271</v>
+        <v>0.9982938703912183</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9826588228110466</v>
+        <v>0.9988000297943297</v>
       </c>
       <c r="F2" t="n">
-        <v>3.349010163025365</v>
+        <v>1.163225705759224</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2563293567508678</v>
+        <v>0.02797977922273666</v>
       </c>
       <c r="H2" t="n">
-        <v>4.397509123241242</v>
+        <v>0.2419368743981863</v>
       </c>
       <c r="I2" t="n">
-        <v>2.205120882349564</v>
+        <v>0.1286652799108416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_24</t>
+          <t>model_1_9_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.974659645582779</v>
+        <v>0.9919720579355564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9870917835250452</v>
+        <v>0.9988141059215304</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7641257615336409</v>
+        <v>0.9978736892578257</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9212776278650145</v>
+        <v>0.9982290973833838</v>
       </c>
       <c r="F3" t="n">
-        <v>3.056054287316095</v>
+        <v>0.9681722031359948</v>
       </c>
       <c r="G3" t="n">
-        <v>1.741579841522982</v>
+        <v>0.09064871554117977</v>
       </c>
       <c r="H3" t="n">
-        <v>19.3128505133435</v>
+        <v>0.3015204544327065</v>
       </c>
       <c r="I3" t="n">
-        <v>10.01041306547114</v>
+        <v>0.1898827819099711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_23</t>
+          <t>model_1_9_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9749214884398784</v>
+        <v>0.9932167450461512</v>
       </c>
       <c r="C4" t="n">
-        <v>0.987303877118517</v>
+        <v>0.99768407283584</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7667766440271891</v>
+        <v>0.9974262682729748</v>
       </c>
       <c r="E4" t="n">
-        <v>0.922200008634704</v>
+        <v>0.9975241565826702</v>
       </c>
       <c r="F4" t="n">
-        <v>3.024475960791268</v>
+        <v>0.8180625670168155</v>
       </c>
       <c r="G4" t="n">
-        <v>1.712964120085155</v>
+        <v>0.1770274652091698</v>
       </c>
       <c r="H4" t="n">
-        <v>19.09580223516268</v>
+        <v>0.3649667682753586</v>
       </c>
       <c r="I4" t="n">
-        <v>9.893122233680575</v>
+        <v>0.26546916315159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_22</t>
+          <t>model_1_9_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9752054494740768</v>
+        <v>0.9941687795631367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9875367301614024</v>
+        <v>0.9963742167005276</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7696977926188473</v>
+        <v>0.9969688114111923</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9232159442833727</v>
+        <v>0.9967450908459101</v>
       </c>
       <c r="F5" t="n">
-        <v>2.990230175523043</v>
+        <v>0.7032469208185538</v>
       </c>
       <c r="G5" t="n">
-        <v>1.681547528465901</v>
+        <v>0.2771517329372236</v>
       </c>
       <c r="H5" t="n">
-        <v>18.85662517858893</v>
+        <v>0.4298362147359261</v>
       </c>
       <c r="I5" t="n">
-        <v>9.763934872892296</v>
+        <v>0.349003496433797</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_1</t>
+          <t>model_1_9_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9752491476293528</v>
+        <v>0.9948911715090366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9978386288897512</v>
+        <v>0.9949778797509877</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9344981825760222</v>
+        <v>0.9965117630917886</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9789384031426758</v>
+        <v>0.9959336517349833</v>
       </c>
       <c r="F6" t="n">
-        <v>2.984960164986485</v>
+        <v>0.6161262370648239</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2916127385191394</v>
+        <v>0.383886519151714</v>
       </c>
       <c r="H6" t="n">
-        <v>5.363141038575193</v>
+        <v>0.4946477280443722</v>
       </c>
       <c r="I6" t="n">
-        <v>2.678213049763338</v>
+        <v>0.4360090236082731</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_21</t>
+          <t>model_1_9_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.97551256917259</v>
+        <v>0.9954335821709813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9877920494467989</v>
+        <v>0.993560017430285</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7729158932749062</v>
+        <v>0.9960615108316353</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9243344326803643</v>
+        <v>0.9951182919344899</v>
       </c>
       <c r="F7" t="n">
-        <v>2.95319144844342</v>
+        <v>0.5507113497420221</v>
       </c>
       <c r="G7" t="n">
-        <v>1.647099785707541</v>
+        <v>0.492266686081811</v>
       </c>
       <c r="H7" t="n">
-        <v>18.59313435690591</v>
+        <v>0.5584955294959721</v>
       </c>
       <c r="I7" t="n">
-        <v>9.621706805328184</v>
+        <v>0.5234349417375695</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_20</t>
+          <t>model_1_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9758432972904533</v>
+        <v>0.9958351409715774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9880714424750958</v>
+        <v>0.9921644434443859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.776455567590612</v>
+        <v>0.9956219874080805</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9255639419522973</v>
+        <v>0.9943180530710185</v>
       </c>
       <c r="F8" t="n">
-        <v>2.913305538961228</v>
+        <v>0.502283238833783</v>
       </c>
       <c r="G8" t="n">
-        <v>1.609404007449707</v>
+        <v>0.5989431520168598</v>
       </c>
       <c r="H8" t="n">
-        <v>18.30331380944117</v>
+        <v>0.6208219335231411</v>
       </c>
       <c r="I8" t="n">
-        <v>9.465361215807938</v>
+        <v>0.609239536616292</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_19</t>
+          <t>model_1_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.976197926601749</v>
+        <v>0.9961267040587813</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9883766685335362</v>
+        <v>0.9908196386542313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7803456174790524</v>
+        <v>0.9951957497179718</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9269141141948682</v>
+        <v>0.9935452102359048</v>
       </c>
       <c r="F9" t="n">
-        <v>2.870537138434955</v>
+        <v>0.4671206437097407</v>
       </c>
       <c r="G9" t="n">
-        <v>1.568222830211253</v>
+        <v>0.7017388646309803</v>
       </c>
       <c r="H9" t="n">
-        <v>17.98480530052823</v>
+        <v>0.6812643606194445</v>
       </c>
       <c r="I9" t="n">
-        <v>9.293672006106632</v>
+        <v>0.6921066271799684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_18</t>
+          <t>model_1_9_24</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9765761111178624</v>
+        <v>0.9961952652142357</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9887095800930569</v>
+        <v>0.9786340144819659</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7846146689644582</v>
+        <v>0.9906588490336753</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9283946273752215</v>
+        <v>0.9861226241666595</v>
       </c>
       <c r="F10" t="n">
-        <v>2.824927973194578</v>
+        <v>0.4588521479491812</v>
       </c>
       <c r="G10" t="n">
-        <v>1.523306318143448</v>
+        <v>1.633197415051405</v>
       </c>
       <c r="H10" t="n">
-        <v>17.63526499588335</v>
+        <v>1.324617342341333</v>
       </c>
       <c r="I10" t="n">
-        <v>9.105408516551242</v>
+        <v>1.487983982925016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_17</t>
+          <t>model_1_9_23</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9769767922065288</v>
+        <v>0.9962351090192327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9890715671283012</v>
+        <v>0.9789377885706064</v>
       </c>
       <c r="D11" t="n">
-        <v>0.789292772450402</v>
+        <v>0.9907945414635797</v>
       </c>
       <c r="E11" t="n">
-        <v>0.930015504787178</v>
+        <v>0.9863217278238479</v>
       </c>
       <c r="F11" t="n">
-        <v>2.776605714606385</v>
+        <v>0.4540469732038327</v>
       </c>
       <c r="G11" t="n">
-        <v>1.474466935514756</v>
+        <v>1.609977186997397</v>
       </c>
       <c r="H11" t="n">
-        <v>17.25223243625573</v>
+        <v>1.305375543710334</v>
       </c>
       <c r="I11" t="n">
-        <v>8.899296175394216</v>
+        <v>1.466635346381918</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_16</t>
+          <t>model_1_9_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9773979519456834</v>
+        <v>0.9962771083441549</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9894642559943438</v>
+        <v>0.9792737109163676</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7944105960270426</v>
+        <v>0.9909430067586844</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9317868118375845</v>
+        <v>0.9865408916626116</v>
       </c>
       <c r="F12" t="n">
-        <v>2.725813724672189</v>
+        <v>0.4489818421137216</v>
       </c>
       <c r="G12" t="n">
-        <v>1.421485254085946</v>
+        <v>1.584299574032052</v>
       </c>
       <c r="H12" t="n">
-        <v>16.83319658761039</v>
+        <v>1.284322495179111</v>
       </c>
       <c r="I12" t="n">
-        <v>8.674055055754847</v>
+        <v>1.443135782369725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_2</t>
+          <t>model_1_9_21</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9774156390090696</v>
+        <v>0.9963210231215068</v>
       </c>
       <c r="C13" t="n">
-        <v>0.997432683235558</v>
+        <v>0.9796453438414657</v>
       </c>
       <c r="D13" t="n">
-        <v>0.922406106880175</v>
+        <v>0.9911051270165158</v>
       </c>
       <c r="E13" t="n">
-        <v>0.975046373376544</v>
+        <v>0.9867820584559616</v>
       </c>
       <c r="F13" t="n">
-        <v>2.723680659561837</v>
+        <v>0.4436857068903098</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3463830291683906</v>
+        <v>1.55589227533263</v>
       </c>
       <c r="H13" t="n">
-        <v>6.353212916828396</v>
+        <v>1.261333111339535</v>
       </c>
       <c r="I13" t="n">
-        <v>3.173127323373924</v>
+        <v>1.417276979521999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_15</t>
+          <t>model_1_9_8</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9778364016134794</v>
+        <v>0.9963326694078716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9898888970886206</v>
+        <v>0.9895428067642321</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7999996261662575</v>
+        <v>0.9947846265944545</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9337188584812129</v>
+        <v>0.9928074815903376</v>
       </c>
       <c r="F14" t="n">
-        <v>2.672936564196097</v>
+        <v>0.4422811612872651</v>
       </c>
       <c r="G14" t="n">
-        <v>1.364192569917712</v>
+        <v>0.7993387876694829</v>
       </c>
       <c r="H14" t="n">
-        <v>16.37557940866347</v>
+        <v>0.7395634739954697</v>
       </c>
       <c r="I14" t="n">
-        <v>8.428374133801503</v>
+        <v>0.7712086434063763</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_14</t>
+          <t>model_1_9_20</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9782872125267346</v>
+        <v>0.996366355803611</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9903464382712461</v>
+        <v>0.9800557155858439</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8060896763563929</v>
+        <v>0.9912817758864158</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9358211995757237</v>
+        <v>0.98704689858419</v>
       </c>
       <c r="F15" t="n">
-        <v>2.618568633837323</v>
+        <v>0.4382185719316231</v>
       </c>
       <c r="G15" t="n">
-        <v>1.302460997482952</v>
+        <v>1.524523814862468</v>
       </c>
       <c r="H15" t="n">
-        <v>15.87693983824841</v>
+        <v>1.236283504774121</v>
       </c>
       <c r="I15" t="n">
-        <v>8.161038404582346</v>
+        <v>1.388879833435276</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_13</t>
+          <t>model_1_9_19</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9787435182734724</v>
+        <v>0.9964125216072826</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9908374452326664</v>
+        <v>0.9805088744123874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8127106418216614</v>
+        <v>0.9914739761735065</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9381032002112518</v>
+        <v>0.9873375285039129</v>
       </c>
       <c r="F16" t="n">
-        <v>2.563538024924545</v>
+        <v>0.4326509622638599</v>
       </c>
       <c r="G16" t="n">
-        <v>1.236214213683186</v>
+        <v>1.489884746915246</v>
       </c>
       <c r="H16" t="n">
-        <v>15.33483012285031</v>
+        <v>1.209028637102971</v>
       </c>
       <c r="I16" t="n">
-        <v>7.870856994167864</v>
+        <v>1.357717409739331</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_3</t>
+          <t>model_1_9_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9789134392145471</v>
+        <v>0.9964585935345996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.996922613475744</v>
+        <v>0.9810085958492913</v>
       </c>
       <c r="D17" t="n">
-        <v>0.910274137175209</v>
+        <v>0.9916824939925423</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9710837943468178</v>
+        <v>0.9876558948677517</v>
       </c>
       <c r="F17" t="n">
-        <v>2.543045508840276</v>
+        <v>0.4270946741124036</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4152017705635533</v>
+        <v>1.451686473387991</v>
       </c>
       <c r="H17" t="n">
-        <v>7.346551226547352</v>
+        <v>1.1794598697982</v>
       </c>
       <c r="I17" t="n">
-        <v>3.677012709654156</v>
+        <v>1.323580981081383</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_12</t>
+          <t>model_1_9_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9791956498903441</v>
+        <v>0.996472329500017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.991361742913709</v>
+        <v>0.9883436596659108</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8198885283050263</v>
+        <v>0.9943900934571762</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9405726611884656</v>
+        <v>0.992109369251766</v>
       </c>
       <c r="F18" t="n">
-        <v>2.509010817316395</v>
+        <v>0.4254381125934551</v>
       </c>
       <c r="G18" t="n">
-        <v>1.165475837546346</v>
+        <v>0.8910005525617104</v>
       </c>
       <c r="H18" t="n">
-        <v>14.7471209709043</v>
+        <v>0.795510052490047</v>
       </c>
       <c r="I18" t="n">
-        <v>7.556837945191755</v>
+        <v>0.8460628514751138</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_11</t>
+          <t>model_1_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9796306850549468</v>
+        <v>0.9965034099978137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9919184355968501</v>
+        <v>0.9815595000022879</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8276466005807217</v>
+        <v>0.9919080855763915</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9432361163270657</v>
+        <v>0.9880042541404788</v>
       </c>
       <c r="F19" t="n">
-        <v>2.456545446942026</v>
+        <v>0.4216897953055499</v>
       </c>
       <c r="G19" t="n">
-        <v>1.090366719508009</v>
+        <v>1.409575837402792</v>
       </c>
       <c r="H19" t="n">
-        <v>14.11190751518142</v>
+        <v>1.147469965627902</v>
       </c>
       <c r="I19" t="n">
-        <v>7.218150410814346</v>
+        <v>1.286228600894641</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_4</t>
+          <t>model_1_9_16</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.979890193787409</v>
+        <v>0.9965453330389757</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9963412835611922</v>
+        <v>0.9821657562135409</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8983032245478199</v>
+        <v>0.9921517027134228</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9671299770128935</v>
+        <v>0.9883846662220286</v>
       </c>
       <c r="F20" t="n">
-        <v>2.425248616543389</v>
+        <v>0.4166338640596372</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4936349501141105</v>
+        <v>1.36323413805822</v>
       </c>
       <c r="H20" t="n">
-        <v>8.326702546099092</v>
+        <v>1.11292395670818</v>
       </c>
       <c r="I20" t="n">
-        <v>4.17978395021249</v>
+        <v>1.245439399027143</v>
       </c>
     </row>
     <row r="21">
@@ -1071,183 +1071,183 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9800314198321919</v>
+        <v>0.9965609383744592</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9925055670803585</v>
+        <v>0.9872266878804726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8360021795008049</v>
+        <v>0.994013226115905</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9460977084103537</v>
+        <v>0.9914532347411728</v>
       </c>
       <c r="F21" t="n">
-        <v>2.408216713495263</v>
+        <v>0.4147518559541362</v>
       </c>
       <c r="G21" t="n">
-        <v>1.011150790802</v>
+        <v>0.9763809077586699</v>
       </c>
       <c r="H21" t="n">
-        <v>13.42777156339105</v>
+        <v>0.8489515414253676</v>
       </c>
       <c r="I21" t="n">
-        <v>6.854267590699685</v>
+        <v>0.9164160403007306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_9</t>
+          <t>model_1_9_15</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9803754067994123</v>
+        <v>0.9965822321818147</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9931198989597505</v>
+        <v>0.9828321267343628</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8449649669724083</v>
+        <v>0.9924138039521166</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9491585744569883</v>
+        <v>0.9887992829735787</v>
       </c>
       <c r="F22" t="n">
-        <v>2.366731782833032</v>
+        <v>0.4121838164472477</v>
       </c>
       <c r="G22" t="n">
-        <v>0.928264977782825</v>
+        <v>1.312297352991397</v>
       </c>
       <c r="H22" t="n">
-        <v>12.6939187452647</v>
+        <v>1.075756818796089</v>
       </c>
       <c r="I22" t="n">
-        <v>6.46504490045416</v>
+        <v>1.200982644899562</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_5</t>
+          <t>model_1_9_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9804646696451613</v>
+        <v>0.9966105687573016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9957151321208662</v>
+        <v>0.9861922706547841</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8866464049433592</v>
+        <v>0.9936547627691673</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9632461459760184</v>
+        <v>0.9908397863166917</v>
       </c>
       <c r="F23" t="n">
-        <v>2.355966657059411</v>
+        <v>0.4087664170068745</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5781154612930347</v>
+        <v>1.055450863958598</v>
       </c>
       <c r="H23" t="n">
-        <v>9.281136637527299</v>
+        <v>0.8997832609205628</v>
       </c>
       <c r="I23" t="n">
-        <v>4.673655665472184</v>
+        <v>0.982192267805172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_8</t>
+          <t>model_1_9_14</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9806334630514311</v>
+        <v>0.9966113459779248</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9937563920102833</v>
+        <v>0.9835633744210227</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8545340369390901</v>
+        <v>0.9926949372241863</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9524156095068548</v>
+        <v>0.9892502375597699</v>
       </c>
       <c r="F24" t="n">
-        <v>2.335610122008322</v>
+        <v>0.4086726839683044</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8423891739312187</v>
+        <v>1.256401413597107</v>
       </c>
       <c r="H24" t="n">
-        <v>11.91042488421463</v>
+        <v>1.035890852703145</v>
       </c>
       <c r="I24" t="n">
-        <v>6.050877169812425</v>
+        <v>1.152629612644932</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_6</t>
+          <t>model_1_9_13</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9807320884194831</v>
+        <v>0.996629063346517</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9950652406950564</v>
+        <v>0.9843642465788082</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8754171976860865</v>
+        <v>0.9929954555362295</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9594785696284371</v>
+        <v>0.9897395128680122</v>
       </c>
       <c r="F25" t="n">
-        <v>2.323715873257452</v>
+        <v>0.4065359640410806</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6657989773360888</v>
+        <v>1.195183439973666</v>
       </c>
       <c r="H25" t="n">
-        <v>10.20055879466122</v>
+        <v>0.9932760005014643</v>
       </c>
       <c r="I25" t="n">
-        <v>5.15274432187493</v>
+        <v>1.100167689681354</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_1_9_7</t>
+          <t>model_1_9_12</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9807682436307109</v>
+        <v>0.9966307743828222</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9944080830764008</v>
+        <v>0.9852391845488315</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8646953020862397</v>
+        <v>0.9933154542406443</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9558606255124779</v>
+        <v>0.9902688843259325</v>
       </c>
       <c r="F26" t="n">
-        <v>2.31935554401886</v>
+        <v>0.406329612553252</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7544628499612878</v>
+        <v>1.128303939855769</v>
       </c>
       <c r="H26" t="n">
-        <v>11.0784434177802</v>
+        <v>0.9478987407908841</v>
       </c>
       <c r="I26" t="n">
-        <v>5.612805598819707</v>
+        <v>1.043406508038456</v>
       </c>
     </row>
   </sheetData>
